--- a/docs/PT1/PT1_16.08.2024_output.xlsx
+++ b/docs/PT1/PT1_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3180 +505,3772 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731089263.5622356</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731089264.0139408</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089263.5622356.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089264.0139408.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>127.39</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>127.12</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731089266.6251822</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731089266.808773</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089266.6251822.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089266.808773.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>127.32</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>127.18</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731089267.9198506</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731089268.0204926</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089267.9198506.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089268.0204926.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>127.32</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>127.13</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731089269.021299</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731089270.7277796</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089269.021299.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089270.7277796.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>127.4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.82</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.4199999999999875</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731089272.290952</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731089272.4056275</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089272.290952.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089272.4056275.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6349.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6340</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731089281.2499104</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731089281.6190243</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089281.2499104.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089281.6190243.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6315</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6310</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731089285.2098758</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731089285.9615834</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089285.2098758.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089285.9615834.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6307.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6306</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731089286.5687912</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731089287.2058904</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089286.5687912.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089287.2058904.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6311.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6312.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731089287.8130307</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731089288.1842637</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089287.8130307.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089288.1842637.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6322.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6315</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731089289.2640402</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731089289.4165294</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089289.2640402.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089289.4165294.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6320.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6313</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731089298.6890929</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731089299.2570038</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089298.6890929.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089299.2570038.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>494.55</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>494.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731089304.140075</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731089305.1708531</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089304.140075.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089305.1708531.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>493.65</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>493.9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731089306.4039073</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731089306.4039073.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+          <t>./test_images/ROSN1731089306.4039073.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>494.2</v>
       </c>
-      <c r="J15" t="n">
-        <v>494.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>494.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731089337.3661625</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731089338.6665187</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731089337.3661625.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731089338.6665187.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1016.4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1016.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731089338.8650963</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731089338.8650963.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+          <t>./test_images/NVTK1731089338.8650963.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1017.4</v>
       </c>
-      <c r="J17" t="n">
-        <v>1017.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-3.600000000000023</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731089343.3575728</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731089345.0079699</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089343.3575728.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089345.0079699.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>12.106</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>12.112</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731089345.439826</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731089346.004231</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089345.439826.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089346.004231.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>12.104</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>12.108</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.004000000000001336</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731089349.283118</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731089349.7972407</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089349.283118.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089349.7972407.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>12.106</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>12.116</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.009999999999999787</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731089350.554201</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731089352.5342965</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089350.554201.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089352.5342965.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>12.092</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>12.082</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.009999999999999787</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731089366.117368</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731089366.3104136</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089366.117368.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089366.3104136.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>124.94</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>124.7</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731089367.45711</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731089369.2523534</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089367.45711.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089369.2523534.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>125</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>125.38</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731089383.1943798</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731089383.9943275</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089383.1943798.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089383.9943275.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>162.36</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>162.12</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731089387.0688956</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731089388.78928</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089387.0688956.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089388.78928.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>162.42</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>162.86</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.4400000000000261</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731089394.8701742</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731089395.2947235</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089394.8701742.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089395.2947235.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>49.75</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>49.715</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731089396.6075866</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731089397.132622</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089396.6075866.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089397.132622.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>49.735</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>49.695</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731089398.032809</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731089398.7446692</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089398.032809.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089398.7446692.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>49.73</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>49.69</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731089399.5965364</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731089400.3781576</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089399.5965364.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089400.3781576.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>49.76</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>49.735</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731089405.1369529</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731089406.5901356</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089405.1369529.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089406.5901356.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>49.73</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>49.78</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731089407.6568122</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731089407.6568122.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+          <t>./test_images/MAGN1731089407.6568122.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>49.84</v>
       </c>
-      <c r="J31" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>49.775</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.06500000000000483</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731089415.7435417</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731089416.1746826</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089415.7435417.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089416.1746826.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731089416.6436024</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731089417.0607035</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089416.6436024.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089417.0607035.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1379.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1378.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731089419.4199977</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731089419.9876897</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089419.4199977.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089419.9876897.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1379.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1379</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731089420.603641</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731089423.005441</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089420.603641.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089423.005441.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1380.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1385.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-5.199999999999818</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731089426.7246656</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731089426.8319979</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089426.7246656.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089426.8319979.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>58.77</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>58.84</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731089426.9336832</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731089426.99657</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089426.9336832.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089426.99657.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>58.77</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>58.83</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731089427.7642124</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731089428.1311657</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089427.7642124.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089428.1311657.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>58.94</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>58.87</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731089428.73091</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731089429.295523</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089428.73091.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089429.295523.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>58.81</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>58.86</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731089430.3539689</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731089430.859973</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089430.3539689.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089430.859973.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>58.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>58.82</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731089430.9256558</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731089430.9880133</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089430.9256558.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089430.9880133.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>58.75</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>58.82</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731089431.8237596</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731089432.502451</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089431.8237596.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089432.502451.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>58.75</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>58.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731089434.213593</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731089434.5780473</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089434.213593.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089434.5780473.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>58.87</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>58.81</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731089435.0625944</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731089436.910712</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089435.0625944.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089436.910712.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>58.75</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>58.66</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731089440.1633513</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731089441.0539062</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089440.1633513.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089441.0539062.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>58.72</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>58.65</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731089442.4917796</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731089442.4917796.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+          <t>./test_images/ALRS1731089442.4917796.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>58.7</v>
       </c>
-      <c r="J46" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
+      <c r="L46" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.04000000000000625</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731089445.2726727</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731089445.968674</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089445.2726727.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089445.968674.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>98.92</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>98.83</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731089447.1931202</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731089447.494556</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089447.1931202.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089447.494556.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>98.87</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>98.73999999999999</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1300000000000097</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731089451.8975012</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731089452.3569026</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089451.8975012.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089452.3569026.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>98.81999999999999</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>98.77</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731089453.7285585</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731089453.9211166</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089453.7285585.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089453.9211166.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>98.91</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>98.86</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731089453.9815977</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731089454.326758</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089453.9815977.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089454.326758.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>99.04000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>98.87</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731089457.5194638</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731089458.2007055</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089457.5194638.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089458.2007055.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>99.09</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>99.03</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731089465.8214085</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731089466.4755232</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731089465.8214085.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731089466.4755232.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>54.63</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>54.52</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731089473.5015209</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731089474.6336927</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731089473.5015209.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731089474.6336927.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>54.5</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>54.64</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731089475.7481575</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731089475.7481575.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+          <t>./test_images/SELG1731089475.7481575.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>54.79</v>
       </c>
-      <c r="J55" t="n">
-        <v>54.79</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.2899999999999991</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731089479.868706</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731089481.370432</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089479.868706.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089481.370432.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>152.92</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>153</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731089487.460706</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731089489.1222618</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089487.460706.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089489.1222618.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>152.78</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>152.46</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731089489.9159784</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731089489.9159784.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+          <t>./test_images/SOFL1731089489.9159784.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>153.12</v>
       </c>
-      <c r="J58" t="n">
-        <v>153.12</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>153.28</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731089505.7800312</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731089506.6363597</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089505.7800312.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089506.6363597.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>19.774</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>19.788</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.01399999999999935</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731089507.8743582</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731089508.2520235</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089507.8743582.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089508.2520235.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>19.813</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>19.779</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.03399999999999892</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731089509.7130334</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731089510.4849033</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089509.7130334.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089510.4849033.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>19.82</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>19.853</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.03300000000000125</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731089515.0312965</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731089515.457495</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089515.0312965.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089515.457495.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>677.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>677.15</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731089522.2047198</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731089523.0155709</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089522.2047198.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089523.0155709.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>676.3</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>675.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731089532.5429285</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731089533.1475759</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089532.5429285.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089533.1475759.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>149.45</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>149.28</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1699999999999875</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731089543.2807386</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731089543.9276922</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089543.2807386.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089543.9276922.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>148.59</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>148.31</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731089544.4529395</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731089545.6352868</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089544.4529395.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089545.6352868.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>148.58</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>148.95</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.3699999999999761</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731089547.5846558</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731089547.9943645</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089547.5846558.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089547.9943645.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>149.41</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>149.05</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +4284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,6 +4308,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3709,11 +4331,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4299999999999855</v>
+        <v>0.4699999999999918</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.04272727272727198</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3727,6 +4358,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.09166666666666856</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3740,6 +4380,15 @@
       <c r="C4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3748,11 +4397,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0899999999999892</v>
+        <v>0.154999999999994</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.02583333333333234</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3766,6 +4424,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3779,6 +4446,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3792,6 +4468,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.002500000000000391</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3805,6 +4490,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.04499999999999815</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3813,11 +4507,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05000000000001137</v>
+        <v>-0.3500000000000227</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.1166666666666742</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3826,11 +4529,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2399999999999807</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.02666666666666136</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3839,11 +4551,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.1066666666666668</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.5900000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3857,6 +4578,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.004333333333333893</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3865,11 +4595,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1999999999999318</v>
+        <v>-3.400000000000091</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>-1.700000000000045</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3883,6 +4622,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.6749999999999545</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3896,6 +4644,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3909,6 +4666,15 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3922,6 +4688,11 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
